--- a/makurodatabases/Ramsey model.xlsx
+++ b/makurodatabases/Ramsey model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2A277-12FF-4F09-B2C6-ABA4D4ED4266}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298346C7-9A91-46F8-B553-A3E2CB0A7E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{B725ABA0-41D6-4614-A867-3E86B38AFAFD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B725ABA0-41D6-4614-A867-3E86B38AFAFD}"/>
   </bookViews>
   <sheets>
     <sheet name="相位图" sheetId="1" r:id="rId1"/>
@@ -265,37 +265,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1535,7 +1505,6 @@
         <c:axId val="147594703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6018,6 +5987,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371814</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B31708F-0BFC-4F63-95A8-659B10C20722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="2090738"/>
+          <a:ext cx="2781639" cy="1195388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6171,6 +6214,80 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>366752</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350C0616-F7EA-4BA8-ADE6-4CE0E72702F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="204788" y="5853113"/>
+          <a:ext cx="5343564" cy="1443048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7905,8 +8022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52D11B-8696-43AD-BF3F-156C00D5AFED}">
   <dimension ref="A2:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8806,8 +8923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA9A06-FAA6-43FC-97EE-9D46B4D7B5A0}">
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/makurodatabases/Ramsey model.xlsx
+++ b/makurodatabases/Ramsey model.xlsx
@@ -8,15 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298346C7-9A91-46F8-B553-A3E2CB0A7E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A61132-F739-40E9-A7A5-E72BC45A362E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B725ABA0-41D6-4614-A867-3E86B38AFAFD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{B725ABA0-41D6-4614-A867-3E86B38AFAFD}"/>
   </bookViews>
   <sheets>
     <sheet name="相位图" sheetId="1" r:id="rId1"/>
     <sheet name="模拟数值" sheetId="2" r:id="rId2"/>
+    <sheet name="方法二（规划求解）" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'方法二（规划求解）'!$D$13:$D$32,'方法二（规划求解）'!$E$12:$E$31</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'方法二（规划求解）'!$G$13:$H$32</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'方法二（规划求解）'!#REF!</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'方法二（规划求解）'!$G$13</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>α</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,52 +425,52 @@
                   <c:v>0.61307236667860554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80540144007708114</c:v>
+                  <c:v>0.8054014400770807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94002302515355884</c:v>
+                  <c:v>0.94002302515355785</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0325163183664774</c:v>
+                  <c:v>1.0325163183664752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.095482840058871</c:v>
+                  <c:v>1.0954828400588674</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1381300649344304</c:v>
+                  <c:v>1.1381300649344255</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1669282329399715</c:v>
+                  <c:v>1.1669282329399651</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1863396411154299</c:v>
+                  <c:v>1.186339641115421</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1994106752788953</c:v>
+                  <c:v>1.1994106752788829</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2082089080791458</c:v>
+                  <c:v>1.2082089080791292</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2141327543151377</c:v>
+                  <c:v>1.2141327543151155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2181262500133927</c:v>
+                  <c:v>1.2181262500133629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2208262777225389</c:v>
+                  <c:v>1.2208262777224994</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2226628058841944</c:v>
+                  <c:v>1.2226628058841413</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2239268929165155</c:v>
+                  <c:v>1.223926892916444</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2248167724550336</c:v>
+                  <c:v>1.2248167724549381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2254691365978643</c:v>
+                  <c:v>1.2254691365977366</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2.4522894667144222</c:v>
@@ -687,52 +723,52 @@
                   <c:v>0.61307236667860554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80540144007708114</c:v>
+                  <c:v>0.8054014400770807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94002302515355884</c:v>
+                  <c:v>0.94002302515355785</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0325163183664774</c:v>
+                  <c:v>1.0325163183664752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.095482840058871</c:v>
+                  <c:v>1.0954828400588674</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1381300649344304</c:v>
+                  <c:v>1.1381300649344255</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1669282329399715</c:v>
+                  <c:v>1.1669282329399651</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1863396411154299</c:v>
+                  <c:v>1.186339641115421</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1994106752788953</c:v>
+                  <c:v>1.1994106752788829</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2082089080791458</c:v>
+                  <c:v>1.2082089080791292</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2141327543151377</c:v>
+                  <c:v>1.2141327543151155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2181262500133927</c:v>
+                  <c:v>1.2181262500133629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2208262777225389</c:v>
+                  <c:v>1.2208262777224994</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2226628058841944</c:v>
+                  <c:v>1.2226628058841413</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2239268929165155</c:v>
+                  <c:v>1.223926892916444</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2248167724550336</c:v>
+                  <c:v>1.2248167724549381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2254691365978643</c:v>
+                  <c:v>1.2254691365977366</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2.4522894667144222</c:v>
@@ -961,52 +997,52 @@
                   <c:v>0.61307236667860554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80540144007708114</c:v>
+                  <c:v>0.8054014400770807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94002302515355884</c:v>
+                  <c:v>0.94002302515355785</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0325163183664774</c:v>
+                  <c:v>1.0325163183664752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.095482840058871</c:v>
+                  <c:v>1.0954828400588674</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1381300649344304</c:v>
+                  <c:v>1.1381300649344255</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1669282329399715</c:v>
+                  <c:v>1.1669282329399651</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1863396411154299</c:v>
+                  <c:v>1.186339641115421</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1994106752788953</c:v>
+                  <c:v>1.1994106752788829</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2082089080791458</c:v>
+                  <c:v>1.2082089080791292</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2141327543151377</c:v>
+                  <c:v>1.2141327543151155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2181262500133927</c:v>
+                  <c:v>1.2181262500133629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2208262777225389</c:v>
+                  <c:v>1.2208262777224994</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2226628058841944</c:v>
+                  <c:v>1.2226628058841413</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2239268929165155</c:v>
+                  <c:v>1.223926892916444</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2248167724550336</c:v>
+                  <c:v>1.2248167724549381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2254691365978643</c:v>
+                  <c:v>1.2254691365977366</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2.4522894667144222</c:v>
@@ -1072,55 +1108,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="31">
-                  <c:v>0.51788529948359152</c:v>
+                  <c:v>0.51788529948359197</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.60116642627132189</c:v>
+                  <c:v>0.60116642627132244</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.65411676698325805</c:v>
+                  <c:v>0.65411676698325871</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.68855027833238702</c:v>
+                  <c:v>0.68855027833238791</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.7112183118259463</c:v>
+                  <c:v>0.71121831182594741</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.72624848522893215</c:v>
+                  <c:v>0.7262484852289337</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.73625816066918992</c:v>
+                  <c:v>0.73625816066919214</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.74294247300453442</c:v>
+                  <c:v>0.74294247300453742</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.74741342592930637</c:v>
+                  <c:v>0.74741342592931026</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.75040632855101019</c:v>
+                  <c:v>0.75040632855101552</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.75240982756496644</c:v>
+                  <c:v>0.75240982756497377</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.75374961498128379</c:v>
+                  <c:v>0.75374961498129356</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.75464307370467076</c:v>
+                  <c:v>0.75464307370468398</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.75523526931139517</c:v>
+                  <c:v>0.75523526931141272</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.75562278137438921</c:v>
+                  <c:v>0.75562278137441274</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.75586952001518815</c:v>
+                  <c:v>0.75586952001521956</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.75601721497248708</c:v>
+                  <c:v>0.75601721497252927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,52 +1289,52 @@
                   <c:v>0.61307236667860554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80540144007708114</c:v>
+                  <c:v>0.8054014400770807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94002302515355884</c:v>
+                  <c:v>0.94002302515355785</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0325163183664774</c:v>
+                  <c:v>1.0325163183664752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.095482840058871</c:v>
+                  <c:v>1.0954828400588674</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1381300649344304</c:v>
+                  <c:v>1.1381300649344255</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1669282329399715</c:v>
+                  <c:v>1.1669282329399651</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1863396411154299</c:v>
+                  <c:v>1.186339641115421</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1994106752788953</c:v>
+                  <c:v>1.1994106752788829</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2082089080791458</c:v>
+                  <c:v>1.2082089080791292</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2141327543151377</c:v>
+                  <c:v>1.2141327543151155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2181262500133927</c:v>
+                  <c:v>1.2181262500133629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2208262777225389</c:v>
+                  <c:v>1.2208262777224994</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2226628058841944</c:v>
+                  <c:v>1.2226628058841413</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2239268929165155</c:v>
+                  <c:v>1.223926892916444</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2248167724550336</c:v>
+                  <c:v>1.2248167724549381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2254691365978643</c:v>
+                  <c:v>1.2254691365977366</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2.4522894667144222</c:v>
@@ -1791,64 +1827,64 @@
                   <c:v>0.61307236667860554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80540144007708114</c:v>
+                  <c:v>0.8054014400770807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94002302515355884</c:v>
+                  <c:v>0.94002302515355785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0325163183664774</c:v>
+                  <c:v>1.0325163183664752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.095482840058871</c:v>
+                  <c:v>1.0954828400588674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1381300649344304</c:v>
+                  <c:v>1.1381300649344255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1669282329399715</c:v>
+                  <c:v>1.1669282329399651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1863396411154299</c:v>
+                  <c:v>1.186339641115421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1994106752788953</c:v>
+                  <c:v>1.1994106752788829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2082089080791458</c:v>
+                  <c:v>1.2082089080791292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2141327543151377</c:v>
+                  <c:v>1.2141327543151155</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2181262500133927</c:v>
+                  <c:v>1.2181262500133629</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2208262777225389</c:v>
+                  <c:v>1.2208262777224994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2226628058841944</c:v>
+                  <c:v>1.2226628058841413</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2239268929165155</c:v>
+                  <c:v>1.223926892916444</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2248167724550336</c:v>
+                  <c:v>1.2248167724549381</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2254691365978643</c:v>
+                  <c:v>1.2254691365977366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2259804924321405</c:v>
+                  <c:v>1.2259804924319695</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2264219252595705</c:v>
+                  <c:v>1.2264219252593414</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2268495558919228</c:v>
+                  <c:v>1.2268495558916159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2273122794853371</c:v>
+                  <c:v>1.227312279484926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,67 +2296,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.51788529948359152</c:v>
+                  <c:v>0.51788529948359197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60116642627132189</c:v>
+                  <c:v>0.60116642627132244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65411676698325805</c:v>
+                  <c:v>0.65411676698325871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68855027833238702</c:v>
+                  <c:v>0.68855027833238791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7112183118259463</c:v>
+                  <c:v>0.71121831182594741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72624848522893215</c:v>
+                  <c:v>0.7262484852289337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73625816066918992</c:v>
+                  <c:v>0.73625816066919214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74294247300453442</c:v>
+                  <c:v>0.74294247300453742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74741342592930637</c:v>
+                  <c:v>0.74741342592931026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75040632855101019</c:v>
+                  <c:v>0.75040632855101552</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75240982756496644</c:v>
+                  <c:v>0.75240982756497377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75374961498128379</c:v>
+                  <c:v>0.75374961498129356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75464307370467076</c:v>
+                  <c:v>0.75464307370468398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75523526931139517</c:v>
+                  <c:v>0.75523526931141272</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75562278137438921</c:v>
+                  <c:v>0.75562278137441274</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75586952001518815</c:v>
+                  <c:v>0.75586952001521956</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.75601721497248708</c:v>
+                  <c:v>0.75601721497252927</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75609233508524987</c:v>
+                  <c:v>0.75609233508530616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75611059249677381</c:v>
+                  <c:v>0.75611059249684909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7560797878698412</c:v>
+                  <c:v>0.75607978786994212</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.75600148659994626</c:v>
+                  <c:v>0.75600148660008115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,6 +3533,952 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'方法二（规划求解）'!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="AE2812"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'方法二（规划求解）'!$C$12:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'方法二（规划求解）'!$D$12:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.61307236667860554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80539806297655414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94001550339331041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.032503758687995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0954638133358776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1381026193522015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1668897316090736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1862865314109472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1993381802701588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2081106141154261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2140000591425193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2179476239241542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.220586274334736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2223407377818709</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.223495058733518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2242380836244837</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2246939406500701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.224942321035849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2250318033243577</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2249883851863523</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2248206459798561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFC1-4C9B-9074-FC5B580BEC51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1572678319"/>
+        <c:axId val="1577839343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1572678319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:lumMod val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577839343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1577839343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1572678319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF">
+        <a:lumMod val="95000"/>
+      </a:sysClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="window" lastClr="FFFFFF">
+          <a:lumMod val="85000"/>
+        </a:sysClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'方法二（规划求解）'!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'方法二（规划求解）'!$C$12:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'方法二（规划求解）'!$E$12:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.51788867658406157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60117034644326994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65412142964061026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68855624412143857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71122615006589873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72625888899149948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73627203009745013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74296100015410449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74743819957800495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75043947133647315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75245417824263394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75380897175902917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75472251961525094</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7553416075266578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75576511774006638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75606004266023441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75627223768178198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75643369364433222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75656751332666539</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7566913885068538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75682012131371224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2067-4CD7-95A4-7A15FAB2CDDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1572678319"/>
+        <c:axId val="1577839343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1572678319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:lumMod val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577839343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1577839343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1572678319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF">
+        <a:lumMod val="95000"/>
+      </a:sysClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="window" lastClr="FFFFFF">
+          <a:lumMod val="85000"/>
+        </a:sysClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3561,6 +4543,18 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5482,6 +6476,942 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6286,6 +8216,203 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>214352</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F7EE5B-9691-43C2-A7A9-ED1601D19295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7177088" y="457201"/>
+          <a:ext cx="5343564" cy="1443048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>230980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F9B78F-0F2E-4C08-BDEE-BFAE6B03255B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>492920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26194</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6383061E-BF52-4330-A710-C387AE612D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128631</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61792236-7B01-4E56-8D56-BC3D66D9E76A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5967413" y="5443537"/>
+          <a:ext cx="5819818" cy="5686467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8018,11 +10145,583 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride7.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52D11B-8696-43AD-BF3F-156C00D5AFED}">
   <dimension ref="A2:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -8466,215 +11165,215 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6">
         <f>模拟数值!E12</f>
-        <v>0.51788529948359152</v>
+        <v>0.51788529948359197</v>
       </c>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F41" s="5">
         <f>模拟数值!D13</f>
-        <v>0.80540144007708114</v>
+        <v>0.8054014400770807</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
         <f>模拟数值!E13</f>
-        <v>0.60116642627132189</v>
+        <v>0.60116642627132244</v>
       </c>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F42" s="5">
         <f>模拟数值!D14</f>
-        <v>0.94002302515355884</v>
+        <v>0.94002302515355785</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
         <f>模拟数值!E14</f>
-        <v>0.65411676698325805</v>
+        <v>0.65411676698325871</v>
       </c>
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F43" s="5">
         <f>模拟数值!D15</f>
-        <v>1.0325163183664774</v>
+        <v>1.0325163183664752</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6">
         <f>模拟数值!E15</f>
-        <v>0.68855027833238702</v>
+        <v>0.68855027833238791</v>
       </c>
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F44" s="5">
         <f>模拟数值!D16</f>
-        <v>1.095482840058871</v>
+        <v>1.0954828400588674</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6">
         <f>模拟数值!E16</f>
-        <v>0.7112183118259463</v>
+        <v>0.71121831182594741</v>
       </c>
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F45" s="5">
         <f>模拟数值!D17</f>
-        <v>1.1381300649344304</v>
+        <v>1.1381300649344255</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6">
         <f>模拟数值!E17</f>
-        <v>0.72624848522893215</v>
+        <v>0.7262484852289337</v>
       </c>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F46" s="5">
         <f>模拟数值!D18</f>
-        <v>1.1669282329399715</v>
+        <v>1.1669282329399651</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
         <f>模拟数值!E18</f>
-        <v>0.73625816066918992</v>
+        <v>0.73625816066919214</v>
       </c>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F47" s="5">
         <f>模拟数值!D19</f>
-        <v>1.1863396411154299</v>
+        <v>1.186339641115421</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
         <f>模拟数值!E19</f>
-        <v>0.74294247300453442</v>
+        <v>0.74294247300453742</v>
       </c>
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F48" s="5">
         <f>模拟数值!D20</f>
-        <v>1.1994106752788953</v>
+        <v>1.1994106752788829</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6">
         <f>模拟数值!E20</f>
-        <v>0.74741342592930637</v>
+        <v>0.74741342592931026</v>
       </c>
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F49" s="5">
         <f>模拟数值!D21</f>
-        <v>1.2082089080791458</v>
+        <v>1.2082089080791292</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
         <f>模拟数值!E21</f>
-        <v>0.75040632855101019</v>
+        <v>0.75040632855101552</v>
       </c>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F50" s="5">
         <f>模拟数值!D22</f>
-        <v>1.2141327543151377</v>
+        <v>1.2141327543151155</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
         <f>模拟数值!E22</f>
-        <v>0.75240982756496644</v>
+        <v>0.75240982756497377</v>
       </c>
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F51" s="5">
         <f>模拟数值!D23</f>
-        <v>1.2181262500133927</v>
+        <v>1.2181262500133629</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
         <f>模拟数值!E23</f>
-        <v>0.75374961498128379</v>
+        <v>0.75374961498129356</v>
       </c>
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F52" s="5">
         <f>模拟数值!D24</f>
-        <v>1.2208262777225389</v>
+        <v>1.2208262777224994</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
         <f>模拟数值!E24</f>
-        <v>0.75464307370467076</v>
+        <v>0.75464307370468398</v>
       </c>
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F53" s="5">
         <f>模拟数值!D25</f>
-        <v>1.2226628058841944</v>
+        <v>1.2226628058841413</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6">
         <f>模拟数值!E25</f>
-        <v>0.75523526931139517</v>
+        <v>0.75523526931141272</v>
       </c>
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F54" s="5">
         <f>模拟数值!D26</f>
-        <v>1.2239268929165155</v>
+        <v>1.223926892916444</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6">
         <f>模拟数值!E26</f>
-        <v>0.75562278137438921</v>
+        <v>0.75562278137441274</v>
       </c>
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F55" s="5">
         <f>模拟数值!D27</f>
-        <v>1.2248167724550336</v>
+        <v>1.2248167724549381</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
         <f>模拟数值!E27</f>
-        <v>0.75586952001518815</v>
+        <v>0.75586952001521956</v>
       </c>
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F56" s="5">
         <f>模拟数值!D28</f>
-        <v>1.2254691365978643</v>
+        <v>1.2254691365977366</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6">
         <f>模拟数值!E28</f>
-        <v>0.75601721497248708</v>
+        <v>0.75601721497252927</v>
       </c>
       <c r="J56" s="7"/>
     </row>
@@ -8924,7 +11623,7 @@
   <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9008,7 +11707,7 @@
         <v>0.61307236667860554</v>
       </c>
       <c r="E12">
-        <v>0.51788529948359152</v>
+        <v>0.51788529948359197</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -9027,21 +11726,21 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D23" si="0">(1-$B$4)*D12+$B$5*D12^$B$2-E12</f>
-        <v>0.80540144007708114</v>
+        <v>0.8054014400770807</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E23" si="1">$B$3*($B$2*D12^($B$2-1)+1-$B$4)*E12</f>
-        <v>0.60116642627132189</v>
+        <v>0.60116642627132244</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H23" si="2">(1-$B$4)*H12+$B$5*H12^$B$2-I12</f>
+        <f>(1-$B$4)*H12+$B$5*H12^$B$2-I12</f>
         <v>2.0363966535599936</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I23" si="3">$B$3*($B$2*H12^($B$2-1)+1-$B$4)*I12</f>
+        <f t="shared" ref="I13:I23" si="2">$B$3*($B$2*H12^($B$2-1)+1-$B$4)*I12</f>
         <v>1.0015761675923316</v>
       </c>
     </row>
@@ -9051,21 +11750,21 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.94002302515355884</v>
+        <v>0.94002302515355785</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.65411676698325805</v>
+        <v>0.65411676698325871</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
+        <f t="shared" ref="H13:H23" si="3">(1-$B$4)*H13+$B$5*H13^$B$2-I13</f>
+        <v>1.7635447909890147</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>1.7635447909890147</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
         <v>0.92448626757176788</v>
       </c>
     </row>
@@ -9075,21 +11774,21 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1.0325163183664774</v>
+        <v>1.0325163183664752</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.68855027833238702</v>
+        <v>0.68855027833238791</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
+        <f t="shared" si="3"/>
+        <v>1.583711606989572</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>1.583711606989572</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
         <v>0.87101178724998218</v>
       </c>
     </row>
@@ -9099,21 +11798,21 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1.095482840058871</v>
+        <v>1.0954828400588674</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.7112183118259463</v>
+        <v>0.71121831182594741</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16">
+        <f t="shared" si="3"/>
+        <v>1.464668677552202</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>1.464668677552202</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
         <v>0.8342288164532472</v>
       </c>
     </row>
@@ -9123,21 +11822,21 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1.1381300649344304</v>
+        <v>1.1381300649344255</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.72624848522893215</v>
+        <v>0.7262484852289337</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.3855726815995379</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>1.3855726815995379</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
         <v>0.80909599679833411</v>
       </c>
     </row>
@@ -9147,21 +11846,21 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>1.1669282329399715</v>
+        <v>1.1669282329399651</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0.73625816066918992</v>
+        <v>0.73625816066919214</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
       <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.3328632921475529</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>1.3328632921475529</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
         <v>0.79201018045606264</v>
       </c>
     </row>
@@ -9171,21 +11870,21 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1.1863396411154299</v>
+        <v>1.186339641115421</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0.74294247300453442</v>
+        <v>0.74294247300453742</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.2976603397622772</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>1.2976603397622772</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
         <v>0.78043753381880243</v>
       </c>
     </row>
@@ -9195,21 +11894,21 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>1.1994106752788953</v>
+        <v>1.1994106752788829</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0.74741342592930637</v>
+        <v>0.74741342592931026</v>
       </c>
       <c r="G20">
         <v>8</v>
       </c>
       <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.274112965682817</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>1.274112965682817</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
         <v>0.77261915959953265</v>
       </c>
     </row>
@@ -9219,21 +11918,21 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1.2082089080791458</v>
+        <v>1.2082089080791292</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.75040632855101019</v>
+        <v>0.75040632855101552</v>
       </c>
       <c r="G21">
         <v>9</v>
       </c>
       <c r="H21">
+        <f t="shared" si="3"/>
+        <v>1.258346617998334</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>1.258346617998334</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
         <v>0.76734597632946833</v>
       </c>
     </row>
@@ -9243,21 +11942,21 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1.2141327543151377</v>
+        <v>1.2141327543151155</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.75240982756496644</v>
+        <v>0.75240982756497377</v>
       </c>
       <c r="G22">
         <v>10</v>
       </c>
       <c r="H22">
+        <f t="shared" si="3"/>
+        <v>1.2477854785945393</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>1.2477854785945393</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
         <v>0.76379269104313863</v>
       </c>
     </row>
@@ -9267,21 +11966,21 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>1.2181262500133927</v>
+        <v>1.2181262500133629</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.75374961498128379</v>
+        <v>0.75374961498129356</v>
       </c>
       <c r="G23">
         <v>11</v>
       </c>
       <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1.2407123828690558</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>1.2407123828690558</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
         <v>0.76139871411549886</v>
       </c>
     </row>
@@ -9291,11 +11990,11 @@
       </c>
       <c r="D24">
         <f t="shared" ref="D24:D27" si="4">(1-$B$4)*D23+$B$5*D23^$B$2-E23</f>
-        <v>1.2208262777225389</v>
+        <v>1.2208262777224994</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:E27" si="5">$B$3*($B$2*D23^($B$2-1)+1-$B$4)*E23</f>
-        <v>0.75464307370467076</v>
+        <v>0.75464307370468398</v>
       </c>
       <c r="G24">
         <v>12</v>
@@ -9315,11 +12014,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>1.2226628058841944</v>
+        <v>1.2226628058841413</v>
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>0.75523526931139517</v>
+        <v>0.75523526931141272</v>
       </c>
       <c r="G25">
         <v>13</v>
@@ -9339,11 +12038,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>1.2239268929165155</v>
+        <v>1.223926892916444</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>0.75562278137438921</v>
+        <v>0.75562278137441274</v>
       </c>
       <c r="G26">
         <v>14</v>
@@ -9363,11 +12062,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>1.2248167724550336</v>
+        <v>1.2248167724549381</v>
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
-        <v>0.75586952001518815</v>
+        <v>0.75586952001521956</v>
       </c>
       <c r="G27">
         <v>15</v>
@@ -9387,11 +12086,11 @@
       </c>
       <c r="D28">
         <f t="shared" ref="D28:D32" si="8">(1-$B$4)*D27+$B$5*D27^$B$2-E27</f>
-        <v>1.2254691365978643</v>
+        <v>1.2254691365977366</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:E32" si="9">$B$3*($B$2*D27^($B$2-1)+1-$B$4)*E27</f>
-        <v>0.75601721497248708</v>
+        <v>0.75601721497252927</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -9411,11 +12110,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="8"/>
-        <v>1.2259804924321405</v>
+        <v>1.2259804924319695</v>
       </c>
       <c r="E29">
         <f t="shared" si="9"/>
-        <v>0.75609233508524987</v>
+        <v>0.75609233508530616</v>
       </c>
       <c r="G29">
         <v>17</v>
@@ -9435,11 +12134,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>1.2264219252595705</v>
+        <v>1.2264219252593414</v>
       </c>
       <c r="E30">
         <f t="shared" si="9"/>
-        <v>0.75611059249677381</v>
+        <v>0.75611059249684909</v>
       </c>
       <c r="G30">
         <v>18</v>
@@ -9459,11 +12158,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="8"/>
-        <v>1.2268495558919228</v>
+        <v>1.2268495558916159</v>
       </c>
       <c r="E31">
         <f t="shared" si="9"/>
-        <v>0.7560797878698412</v>
+        <v>0.75607978786994212</v>
       </c>
       <c r="G31">
         <v>19</v>
@@ -9483,11 +12182,11 @@
       </c>
       <c r="D32">
         <f t="shared" si="8"/>
-        <v>1.2273122794853371</v>
+        <v>1.227312279484926</v>
       </c>
       <c r="E32">
         <f t="shared" si="9"/>
-        <v>0.75600148659994626</v>
+        <v>0.75600148660008115</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -9499,6 +12198,486 @@
       <c r="I32">
         <f t="shared" si="7"/>
         <v>0.75629047136154848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F970C7-708A-4A01-AB65-B9D1AB9C604D}">
+  <dimension ref="A2:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>((1/B3+B4-1)/(B2*B5))^(1/(B2-1))</f>
+        <v>1.2261447333572111</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.2261447333572111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>B5*B8^B2-B4*B8</f>
+        <v>0.75653542891484515</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.75653542891484515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0.5*B8</f>
+        <v>0.61307236667860554</v>
+      </c>
+      <c r="E12">
+        <v>0.51788867658406157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.80539806297655414</v>
+      </c>
+      <c r="E13">
+        <v>0.60117034644326994</v>
+      </c>
+      <c r="G13">
+        <f>D13-((1-$B$4)*D12+$B$5*D12^$B$2-E12)</f>
+        <v>-5.6954441163270531E-14</v>
+      </c>
+      <c r="H13">
+        <f>E13-($B$3*($B$2*D12^($B$2-1)+1-$B$4)*E12)</f>
+        <v>4.9960036108132044E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.94001550339331041</v>
+      </c>
+      <c r="E14">
+        <v>0.65412142964061026</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G32" si="0">D14-((1-$B$4)*D13+$B$5*D13^$B$2-E13)</f>
+        <v>1.1008343447915792E-7</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H32" si="1">E14-($B$3*($B$2*D13^($B$2-1)+1-$B$4)*E13)</f>
+        <v>-2.125854022816398E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1.032503758687995</v>
+      </c>
+      <c r="E15">
+        <v>0.68855624412143857</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.0067734979024578E-7</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-7.8634281308609388E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1.0954638133358776</v>
+      </c>
+      <c r="E16">
+        <v>0.71122615006589873</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4.3284349660055454E-8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-2.6706128419817787E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1.1381026193522015</v>
+      </c>
+      <c r="E17">
+        <v>0.72625888899149948</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.7755574788225204E-8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-9.4908206849098065E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1.1668897316090736</v>
+      </c>
+      <c r="E18">
+        <v>0.73627203009745013</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>7.4010548800629294E-9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-3.5642920837020142E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1.1862865314109472</v>
+      </c>
+      <c r="E19">
+        <v>0.74296100015410449</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3.1518869736402166E-9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-1.4041000584441576E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1.1993381802701588</v>
+      </c>
+      <c r="E20">
+        <v>0.74743819957800495</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1.3657086572749222E-9</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-5.7429538902198374E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1.2081106141154261</v>
+      </c>
+      <c r="E21">
+        <v>0.75043947133647315</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>5.9907945271220342E-10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-2.4151081134959895E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1.2140000591425193</v>
+      </c>
+      <c r="E22">
+        <v>0.75245417824263394</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2.6492852356341245E-10</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-1.0353418122832636E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1.2179476239241542</v>
+      </c>
+      <c r="E23">
+        <v>0.75380897175902917</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.1772294250533832E-10</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-4.4899306494983193E-11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>1.220586274334736</v>
+      </c>
+      <c r="E24">
+        <v>0.75472251961525094</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>5.2398307914813813E-11</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-1.954014727800768E-11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>1.2223407377818709</v>
+      </c>
+      <c r="E25">
+        <v>0.7553416075266578</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2.3270940729958056E-11</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>-8.443135079971853E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>1.223495058733518</v>
+      </c>
+      <c r="E26">
+        <v>0.75576511774006638</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1.024713647268527E-11</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>-3.549494032029088E-12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>1.2242380836244837</v>
+      </c>
+      <c r="E27">
+        <v>0.75606004266023441</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>4.4151349243293225E-12</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>-1.3786749519795194E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>1.2246939406500701</v>
+      </c>
+      <c r="E28">
+        <v>0.75627223768178198</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.7990053891026037E-12</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-4.0367709175370692E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>1.224942321035849</v>
+      </c>
+      <c r="E29">
+        <v>0.75643369364433222</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>6.1239902038323635E-13</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>5.8619775700208265E-14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>1.2250318033243577</v>
+      </c>
+      <c r="E30">
+        <v>0.75656751332666539</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>4.8849813083506888E-14</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>3.2585045772748344E-13</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>1.2249883851863523</v>
+      </c>
+      <c r="E31">
+        <v>0.7566913885068538</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>-2.7133850721838826E-13</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>5.6632476486129235E-13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>1.2248206459798561</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E13:E32" si="2">$B$3*($B$2*D31^($B$2-1)+1-$B$4)*E31</f>
+        <v>0.75682012131371224</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>-5.4578563890572696E-13</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
